--- a/analysis_docs/sysco/sysco_parsed_without_confidence.xlsx
+++ b/analysis_docs/sysco/sysco_parsed_without_confidence.xlsx
@@ -713,10 +713,8 @@
           <t>6/12/24</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="B6" t="n">
+        <v>652144509</v>
       </c>
       <c r="C6" t="n">
         <v>708.74</v>
@@ -726,10 +724,8 @@
           <t>COURTYARD BY MARRIOTT</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>756346</t>
-        </is>
+      <c r="E6" t="n">
+        <v>756346</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2245,10 +2241,8 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J40" t="n">
+        <v>2</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -2283,10 +2277,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J41" t="n">
+        <v>1</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2321,10 +2313,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J42" t="n">
+        <v>1</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2359,10 +2349,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J43" t="n">
+        <v>1</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2401,10 +2389,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J44" t="n">
+        <v>1</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -2439,10 +2425,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J45" t="n">
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -2477,10 +2461,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J46" t="n">
+        <v>1</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -2515,10 +2497,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J47" t="n">
+        <v>1</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -2553,10 +2533,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J48" t="n">
+        <v>1</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2591,10 +2569,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J49" t="n">
+        <v>1</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2629,10 +2605,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J50" t="n">
+        <v>1</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2667,10 +2641,8 @@
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J51" t="n">
+        <v>1</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2705,10 +2677,8 @@
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J52" t="n">
+        <v>1</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2739,11 +2709,7 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
     </row>
@@ -2777,10 +2743,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J54" t="n">
+        <v>1</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -2815,10 +2779,8 @@
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J55" t="n">
+        <v>2</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -2853,10 +2815,8 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J56" t="n">
+        <v>2</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -2891,10 +2851,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J57" t="n">
+        <v>1</v>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -2925,10 +2883,8 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="J58" t="n">
+        <v>5</v>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -2963,10 +2919,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J59" t="n">
+        <v>2</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -3001,10 +2955,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J60" t="n">
+        <v>2</v>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -3039,10 +2991,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J61" t="n">
+        <v>1</v>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -3077,10 +3027,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J62" t="n">
+        <v>1</v>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -3115,10 +3063,8 @@
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J63" t="n">
+        <v>2</v>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -3153,10 +3099,8 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J64" t="n">
+        <v>1</v>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3191,10 +3135,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J65" t="n">
+        <v>1</v>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -3229,10 +3171,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J66" t="n">
+        <v>1</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -3267,10 +3207,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J67" t="n">
+        <v>1</v>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -3301,10 +3239,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J68" t="n">
+        <v>1</v>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -3335,10 +3271,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J69" t="n">
+        <v>2</v>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -3373,10 +3307,8 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J70" t="n">
+        <v>2</v>
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -3403,10 +3335,8 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J71" t="n">
+        <v>1</v>
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -3441,19 +3371,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J72" t="n">
+        <v>1</v>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A73" t="n">
+        <v>652144509</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3483,19 +3409,15 @@
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J73" t="n">
+        <v>2</v>
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A74" t="n">
+        <v>652144509</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3525,19 +3447,15 @@
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J74" t="n">
+        <v>1</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A75" t="n">
+        <v>652144509</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3567,19 +3485,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J75" t="n">
+        <v>2</v>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A76" t="n">
+        <v>652144509</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3609,19 +3523,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J76" t="n">
+        <v>1</v>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A77" t="n">
+        <v>652144509</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3651,19 +3561,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J77" t="n">
+        <v>1</v>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A78" t="n">
+        <v>652144509</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3693,19 +3599,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J78" t="n">
+        <v>1</v>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A79" t="n">
+        <v>652144509</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3735,19 +3637,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J79" t="n">
+        <v>1</v>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A80" t="n">
+        <v>652144509</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3777,19 +3675,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J80" t="n">
+        <v>1</v>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A81" t="n">
+        <v>652144509</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3819,19 +3713,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J81" t="n">
+        <v>1</v>
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A82" t="n">
+        <v>652144509</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3861,19 +3751,15 @@
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J82" t="n">
+        <v>1</v>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A83" t="n">
+        <v>652144509</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3903,19 +3789,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J83" t="n">
+        <v>1</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A84" t="n">
+        <v>652144509</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3945,19 +3827,15 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J84" t="n">
+        <v>1</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>652144509</t>
-        </is>
+      <c r="A85" t="n">
+        <v>652144509</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3987,10 +3865,8 @@
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="J85" t="n">
+        <v>1</v>
       </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
